--- a/REGULAR/ADMIN/DIMAPILIS, JONNA.xlsx
+++ b/REGULAR/ADMIN/DIMAPILIS, JONNA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="373">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1148,6 +1148,12 @@
   </si>
   <si>
     <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/13,19,22,28/2023</t>
   </si>
 </sst>
 </file>
@@ -2106,6 +2112,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FE0-493D-AE03-4E7B9B509F0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2136,6 +2147,11 @@
               <c:f>CONVERTION!$K$3</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FE0-493D-AE03-4E7B9B509F0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2173,6 +2189,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FE0-493D-AE03-4E7B9B509F0D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2184,11 +2205,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="213495520"/>
-        <c:axId val="213495128"/>
+        <c:axId val="241209272"/>
+        <c:axId val="241209664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213495520"/>
+        <c:axId val="241209272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213495128"/>
+        <c:crossAx val="241209664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2238,7 +2259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213495128"/>
+        <c:axId val="241209664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213495520"/>
+        <c:crossAx val="241209272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2938,7 +2959,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +3002,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3066,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3126,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,7 +3192,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3234,7 +3255,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,7 +3353,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3412,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3456,7 +3477,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3499,7 +3520,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3595,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3781,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3826,7 +3847,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3884,7 +3905,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3950,7 +3971,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4006,7 +4027,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,7 +4102,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4124,7 +4145,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4190,7 +4211,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4246,7 +4267,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4331,7 +4352,13 @@
     <xdr:ext cx="8670421" cy="6302523"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -4371,7 +4398,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4434,7 +4461,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4500,7 +4527,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K616" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K617" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4878,12 +4905,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K616"/>
+  <dimension ref="A2:K617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A587" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K601" sqref="K601"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="K605" sqref="K605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,7 +5073,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>246.09400000000008</v>
+        <v>243.59400000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5056,7 +5083,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>288.625</v>
+        <v>290.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18044,13 +18071,15 @@
       <c r="B601" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="C601" s="13"/>
+      <c r="C601" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D601" s="39"/>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
-      <c r="G601" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G601" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
@@ -18063,25 +18092,33 @@
       <c r="A602" s="40">
         <v>45200</v>
       </c>
-      <c r="B602" s="20"/>
-      <c r="C602" s="13"/>
-      <c r="D602" s="39"/>
+      <c r="B602" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C602" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D602" s="39">
+        <v>1</v>
+      </c>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G602" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H602" s="39"/>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20"/>
+      <c r="K602" s="50">
+        <v>45212</v>
+      </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B603" s="20"/>
+      <c r="A603" s="40"/>
+      <c r="B603" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
       <c r="E603" s="9"/>
@@ -18090,18 +18127,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H603" s="39"/>
+      <c r="H603" s="39">
+        <v>1</v>
+      </c>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
+      <c r="K603" s="50">
+        <v>45223</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B604" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B604" s="20" t="s">
+        <v>371</v>
+      </c>
       <c r="C604" s="13"/>
-      <c r="D604" s="39"/>
+      <c r="D604" s="39">
+        <v>4</v>
+      </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
       <c r="G604" s="13" t="str">
@@ -18111,10 +18156,14 @@
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20"/>
+      <c r="K604" s="20" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40"/>
+      <c r="A605" s="40">
+        <v>45261</v>
+      </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
@@ -18290,20 +18339,36 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="41"/>
-      <c r="B616" s="15"/>
-      <c r="C616" s="42"/>
-      <c r="D616" s="43"/>
-      <c r="E616" s="52"/>
-      <c r="F616" s="15"/>
-      <c r="G616" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H616" s="43"/>
-      <c r="I616" s="52"/>
-      <c r="J616" s="12"/>
-      <c r="K616" s="15"/>
+      <c r="A616" s="40"/>
+      <c r="B616" s="20"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="39"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="20"/>
+      <c r="G616" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H616" s="39"/>
+      <c r="I616" s="9"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="20"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="41"/>
+      <c r="B617" s="15"/>
+      <c r="C617" s="42"/>
+      <c r="D617" s="43"/>
+      <c r="E617" s="52"/>
+      <c r="F617" s="15"/>
+      <c r="G617" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H617" s="43"/>
+      <c r="I617" s="52"/>
+      <c r="J617" s="12"/>
+      <c r="K617" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18473,7 +18538,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>534.71900000000005</v>
+        <v>533.71900000000005</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
